--- a/Pre-contest Preparations/teams promoted into the international oral defense.xlsx
+++ b/Pre-contest Preparations/teams promoted into the international oral defense.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/easonshao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\stOOrz-Mathematical-Modelling-Group\IMMC_2022_Greater_China_Oral_Defense\Pre-contest Preparations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E82AB3-B097-0542-854E-36FC88C6E3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{9C2A7445-743B-5742-A5B2-8B1A104B01C0}"/>
+    <workbookView xWindow="5184" yWindow="1800" windowWidth="28044" windowHeight="17436"/>
   </bookViews>
   <sheets>
     <sheet name="中华赛" sheetId="1" r:id="rId1"/>
@@ -350,12 +349,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -372,12 +371,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="19"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -389,8 +382,39 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +445,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -431,10 +470,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,18 +493,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,9 +514,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -782,20 +839,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55CA7FF-1A68-474B-8183-F294E16E3856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25">
+    <row r="1" spans="1:2" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,487 +860,490 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19">
+    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19">
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19">
+    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
+    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19">
+    <row r="11" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19">
+    <row r="13" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19">
+    <row r="15" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="19">
+    <row r="17" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="19">
+    <row r="19" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="19">
+    <row r="21" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="19">
+    <row r="23" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="19">
+    <row r="25" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="19">
+    <row r="27" spans="1:2" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="12" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD75162-1C75-A04B-AE1D-9D7B6813F75B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" ht="19">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19">
+    <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19">
+    <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19">
+    <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19">
+    <row r="6" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" ht="19">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="19">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" ht="19">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="19">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" ht="19">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="19">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" ht="19">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="19">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" ht="19">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" ht="19">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" ht="19">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="19">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" ht="19">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="19">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" ht="19">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" ht="19">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" ht="19">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" ht="19">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" ht="19">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" ht="19">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" ht="19">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B27" xr:uid="{8AD75162-1C75-A04B-AE1D-9D7B6813F75B}"/>
+  <autoFilter ref="A1:B27"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pre-contest Preparations/teams promoted into the international oral defense.xlsx
+++ b/Pre-contest Preparations/teams promoted into the international oral defense.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5184" yWindow="1800" windowWidth="28044" windowHeight="17436"/>
+    <workbookView xWindow="5184" yWindow="1800" windowWidth="28044" windowHeight="17436" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="中华赛" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">国际赛!$A$1:$B$27</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1077,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1090,7 +1090,7 @@
     <col min="3" max="3" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="24.6" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1109,8 +1109,11 @@
       <c r="C2" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1120,8 +1123,11 @@
       <c r="C3" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1131,8 +1137,11 @@
       <c r="C4" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1142,8 +1151,11 @@
       <c r="C5" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1151,8 +1163,11 @@
         <v>21</v>
       </c>
       <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1160,8 +1175,11 @@
         <v>25</v>
       </c>
       <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1169,8 +1187,11 @@
         <v>29</v>
       </c>
       <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1178,8 +1199,11 @@
         <v>33</v>
       </c>
       <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1187,8 +1211,11 @@
         <v>37</v>
       </c>
       <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1196,8 +1223,11 @@
         <v>41</v>
       </c>
       <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -1205,8 +1235,11 @@
         <v>45</v>
       </c>
       <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -1214,8 +1247,11 @@
         <v>35</v>
       </c>
       <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1223,8 +1259,11 @@
         <v>51</v>
       </c>
       <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1232,8 +1271,11 @@
         <v>55</v>
       </c>
       <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
@@ -1241,8 +1283,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -1250,8 +1295,11 @@
         <v>61</v>
       </c>
       <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
@@ -1259,8 +1307,11 @@
         <v>65</v>
       </c>
       <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -1268,8 +1319,11 @@
         <v>69</v>
       </c>
       <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
@@ -1277,8 +1331,11 @@
         <v>73</v>
       </c>
       <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
@@ -1286,8 +1343,11 @@
         <v>77</v>
       </c>
       <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>79</v>
       </c>
@@ -1295,8 +1355,11 @@
         <v>80</v>
       </c>
       <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>83</v>
       </c>
@@ -1304,8 +1367,11 @@
         <v>19</v>
       </c>
       <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -1313,8 +1379,11 @@
         <v>87</v>
       </c>
       <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>90</v>
       </c>
@@ -1322,8 +1391,11 @@
         <v>91</v>
       </c>
       <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>94</v>
       </c>
@@ -1331,8 +1403,11 @@
         <v>95</v>
       </c>
       <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
@@ -1340,10 +1415,14 @@
         <v>71</v>
       </c>
       <c r="C27" s="6"/>
+      <c r="D27">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B27"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pre-contest Preparations/teams promoted into the international oral defense.xlsx
+++ b/Pre-contest Preparations/teams promoted into the international oral defense.xlsx
@@ -1077,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1090,7 +1090,7 @@
     <col min="3" max="3" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1109,11 +1109,8 @@
       <c r="C2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1123,11 +1120,8 @@
       <c r="C3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1137,11 +1131,8 @@
       <c r="C4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1151,11 +1142,8 @@
       <c r="C5" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1163,11 +1151,8 @@
         <v>21</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1175,11 +1160,8 @@
         <v>25</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1187,11 +1169,8 @@
         <v>29</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1199,11 +1178,8 @@
         <v>33</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1211,11 +1187,8 @@
         <v>37</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1223,11 +1196,8 @@
         <v>41</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -1235,11 +1205,8 @@
         <v>45</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -1247,11 +1214,8 @@
         <v>35</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1259,11 +1223,8 @@
         <v>51</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1271,11 +1232,8 @@
         <v>55</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
@@ -1283,11 +1241,8 @@
         <v>7</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -1295,11 +1250,8 @@
         <v>61</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
@@ -1307,11 +1259,8 @@
         <v>65</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -1319,11 +1268,8 @@
         <v>69</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
@@ -1331,11 +1277,8 @@
         <v>73</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
@@ -1343,11 +1286,8 @@
         <v>77</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>79</v>
       </c>
@@ -1355,11 +1295,8 @@
         <v>80</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>83</v>
       </c>
@@ -1367,11 +1304,8 @@
         <v>19</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -1379,11 +1313,8 @@
         <v>87</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>90</v>
       </c>
@@ -1391,11 +1322,8 @@
         <v>91</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>94</v>
       </c>
@@ -1403,11 +1331,8 @@
         <v>95</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
@@ -1415,9 +1340,6 @@
         <v>71</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B27"/>
